--- a/Matriz RACI/matriz_RACI_responsabilidades.xlsx
+++ b/Matriz RACI/matriz_RACI_responsabilidades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\fatec\2º Semestre\modelagem de processos\Tarefas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alunos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01255C59-5EDF-426C-8B02-363BD13807C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C75C7D-7AD6-4E07-98E9-72C450EC32AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="64">
   <si>
     <t>PLANO DE AÇÃO</t>
   </si>
@@ -176,27 +176,18 @@
     <t>3.3 - Descrição da aplicação proposta</t>
   </si>
   <si>
-    <t>3.4 - protótipo não funcional</t>
-  </si>
-  <si>
     <t>3.5 - ODS</t>
   </si>
   <si>
     <t>4 - Discussão e resultados</t>
   </si>
   <si>
-    <t>4.1 - problemas encontrados</t>
-  </si>
-  <si>
     <t>4.2 - Oportunidades de melhorias</t>
   </si>
   <si>
     <t>5 - Considerações finais</t>
   </si>
   <si>
-    <t>Referencias</t>
-  </si>
-  <si>
     <t>1.1 - Objetivos</t>
   </si>
   <si>
@@ -209,9 +200,6 @@
     <t>1.4 - Organização do trabalho</t>
   </si>
   <si>
-    <t>2.1 - Processos</t>
-  </si>
-  <si>
     <t>2.2 - Sobre o tema do trabalho</t>
   </si>
   <si>
@@ -233,29 +221,86 @@
     <t>3.1.3 - Mapa de empatia</t>
   </si>
   <si>
-    <t>3.2.1 - Matriz RACI</t>
-  </si>
-  <si>
-    <t>3.2.2 - Trello</t>
-  </si>
-  <si>
-    <t>3.2.X - Demais ferramentas</t>
-  </si>
-  <si>
-    <t>Glossário(opcional)</t>
-  </si>
-  <si>
-    <t>Apendices(opcionais)</t>
-  </si>
-  <si>
-    <t>Anexos(opcionais)</t>
+    <t>3.4 - Protótipo não funcional</t>
+  </si>
+  <si>
+    <t>4.1 - Problemas encontrados</t>
+  </si>
+  <si>
+    <t>6 - Referências</t>
+  </si>
+  <si>
+    <t>A/I</t>
+  </si>
+  <si>
+    <t>R/A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>A/i</t>
+  </si>
+  <si>
+    <t>2.5 - Sobre modelagem de processos</t>
+  </si>
+  <si>
+    <t>2.1 - Processos Gerenciais</t>
+  </si>
+  <si>
+    <t>2.6 - Gamificação</t>
+  </si>
+  <si>
+    <t>2.7 - Desenvolvimento de Jogos Web</t>
+  </si>
+  <si>
+    <t>2.8 - Serious Games</t>
+  </si>
+  <si>
+    <t>2.9 - Teoria dos Jogos</t>
+  </si>
+  <si>
+    <t>2.10 - Protótipos não funcionais</t>
+  </si>
+  <si>
+    <t>2.11 - Enade</t>
+  </si>
+  <si>
+    <t>2.12 - Gestão em Desenvolvimento de jogos</t>
+  </si>
+  <si>
+    <t>2.13 - Gestão de Desenvolvimento Geral</t>
+  </si>
+  <si>
+    <t>2.14 - Acessibilidade em Jogos</t>
+  </si>
+  <si>
+    <t>2.15 - UX/Ui em Jogos</t>
+  </si>
+  <si>
+    <t>2.16 - Definição de Personas</t>
+  </si>
+  <si>
+    <t>2.17 - Mapa de Empatia</t>
+  </si>
+  <si>
+    <t>2.18 - Canvas</t>
+  </si>
+  <si>
+    <t>2.19 - Matriz Raci</t>
+  </si>
+  <si>
+    <t>2.20 - Mapa de Processos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -271,13 +316,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="3" tint="0.39997558519241921"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -341,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -355,22 +405,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -378,13 +419,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,8 +465,36 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="0"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -414,7 +509,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="0"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -429,7 +524,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="0"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -444,7 +539,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="0"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -459,7 +554,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="0"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -467,6 +562,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -506,12 +612,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -533,20 +633,10 @@
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -565,6 +655,16 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -579,7 +679,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{853F73EC-DCCE-4129-BBAD-271637AE39EE}" name="Tabela5" displayName="Tabela5" ref="A2:E9" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{853F73EC-DCCE-4129-BBAD-271637AE39EE}" name="Tabela5" displayName="Tabela5" ref="A2:E9" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A2:E9" xr:uid="{853F73EC-DCCE-4129-BBAD-271637AE39EE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8E905D51-22A2-4148-8769-3418472AE255}" name="Tarefas" dataDxfId="15"/>
@@ -593,24 +693,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4FA5DCD3-9BD4-460A-82C2-0B2941AB6561}" name="Tabela589" displayName="Tabela589" ref="A2:F33" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A2:F33" xr:uid="{853F73EC-DCCE-4129-BBAD-271637AE39EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4FA5DCD3-9BD4-460A-82C2-0B2941AB6561}" name="Tabela589" displayName="Tabela589" ref="A2:F44" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A2:F44" xr:uid="{853F73EC-DCCE-4129-BBAD-271637AE39EE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C008108F-AE3F-4526-8AD4-89949B7513D8}" name="Tarefas" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{CF0D5E07-FDC2-4DCB-9450-8AE3886127D5}" name="Carlos" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D40B83DF-7324-499C-AD95-4BD2E659BAE4}" name="Fabrício" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{37F06469-DF4E-435A-A262-28F03F9C1B01}" name="Juliana" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{DEB705BF-9C4D-4FAE-94BF-6BA81A502B63}" name="Vinicius M." dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{5AEFD838-53A6-4A90-BD8F-B07267CC1280}" name="Vinicius R." dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C008108F-AE3F-4526-8AD4-89949B7513D8}" name="Tarefas" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CF0D5E07-FDC2-4DCB-9450-8AE3886127D5}" name="Carlos" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D40B83DF-7324-499C-AD95-4BD2E659BAE4}" name="Fabrício" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{37F06469-DF4E-435A-A262-28F03F9C1B01}" name="Juliana" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{DEB705BF-9C4D-4FAE-94BF-6BA81A502B63}" name="Vinicius M." dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5AEFD838-53A6-4A90-BD8F-B07267CC1280}" name="Vinicius R." dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -648,9 +748,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,9 +783,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,9 +835,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -913,170 +1047,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1095,368 +1229,890 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="B8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="B11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="B12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="B13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="B32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="B33" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="B34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="B40" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="B43" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="C43" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="19"/>
+      <c r="B44" s="18">
+        <v>8</v>
+      </c>
+      <c r="C44" s="18">
+        <v>9</v>
+      </c>
+      <c r="D44" s="18">
+        <v>8</v>
+      </c>
+      <c r="E44" s="18">
+        <v>10</v>
+      </c>
+      <c r="F44" s="18">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
